--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H2">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I2">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J2">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N2">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q2">
-        <v>1102.141499371731</v>
+        <v>1398.176544307572</v>
       </c>
       <c r="R2">
-        <v>1102.141499371731</v>
+        <v>12583.58889876815</v>
       </c>
       <c r="S2">
-        <v>0.2469095123917789</v>
+        <v>0.2665542439193603</v>
       </c>
       <c r="T2">
-        <v>0.2469095123917789</v>
+        <v>0.2665542439193604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H3">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I3">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J3">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N3">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q3">
-        <v>110.7572398111548</v>
+        <v>134.3120727558361</v>
       </c>
       <c r="R3">
-        <v>110.7572398111548</v>
+        <v>1208.808654802524</v>
       </c>
       <c r="S3">
-        <v>0.02481261806330725</v>
+        <v>0.0256058171970008</v>
       </c>
       <c r="T3">
-        <v>0.02481261806330725</v>
+        <v>0.02560581719700081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H4">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I4">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J4">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N4">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q4">
-        <v>480.8460150975508</v>
+        <v>647.9235057359272</v>
       </c>
       <c r="R4">
-        <v>480.8460150975508</v>
+        <v>5831.311551623344</v>
       </c>
       <c r="S4">
-        <v>0.1077225158393409</v>
+        <v>0.1235228561744698</v>
       </c>
       <c r="T4">
-        <v>0.1077225158393409</v>
+        <v>0.1235228561744698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H5">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I5">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J5">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N5">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O5">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P5">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q5">
-        <v>1069.793379351383</v>
+        <v>1145.896595248788</v>
       </c>
       <c r="R5">
-        <v>1069.793379351383</v>
+        <v>10313.06935723909</v>
       </c>
       <c r="S5">
-        <v>0.2396626583847682</v>
+        <v>0.2184585357263139</v>
       </c>
       <c r="T5">
-        <v>0.2396626583847682</v>
+        <v>0.218458535726314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H6">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I6">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J6">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N6">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P6">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q6">
-        <v>107.5064879897453</v>
+        <v>110.077477338844</v>
       </c>
       <c r="R6">
-        <v>107.5064879897453</v>
+        <v>990.697296049596</v>
       </c>
       <c r="S6">
-        <v>0.02408436171184199</v>
+        <v>0.02098563222510439</v>
       </c>
       <c r="T6">
-        <v>0.02408436171184199</v>
+        <v>0.02098563222510439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H7">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I7">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J7">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N7">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O7">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P7">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q7">
-        <v>466.7330680607609</v>
+        <v>531.0154445282498</v>
       </c>
       <c r="R7">
-        <v>466.7330680607609</v>
+        <v>4779.139000754247</v>
       </c>
       <c r="S7">
-        <v>0.1045608339017211</v>
+        <v>0.1012350127757497</v>
       </c>
       <c r="T7">
-        <v>0.1045608339017211</v>
+        <v>0.1012350127757497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H8">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I8">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J8">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N8">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O8">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P8">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q8">
-        <v>732.6824617374837</v>
+        <v>819.4919388934321</v>
       </c>
       <c r="R8">
-        <v>732.6824617374837</v>
+        <v>7375.427450040889</v>
       </c>
       <c r="S8">
-        <v>0.1641406928862899</v>
+        <v>0.1562313822664851</v>
       </c>
       <c r="T8">
-        <v>0.1641406928862899</v>
+        <v>0.1562313822664851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H9">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I9">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J9">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N9">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P9">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q9">
-        <v>73.62928187201437</v>
+        <v>78.72229109234935</v>
       </c>
       <c r="R9">
-        <v>73.62928187201437</v>
+        <v>708.5006198311441</v>
       </c>
       <c r="S9">
-        <v>0.01649495105223711</v>
+        <v>0.01500794793558269</v>
       </c>
       <c r="T9">
-        <v>0.01649495105223711</v>
+        <v>0.0150079479355827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H10">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I10">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J10">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N10">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O10">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P10">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q10">
-        <v>319.657178555715</v>
+        <v>379.7575435891176</v>
       </c>
       <c r="R10">
-        <v>319.657178555715</v>
+        <v>3417.817892302058</v>
       </c>
       <c r="S10">
-        <v>0.07161185576871473</v>
+        <v>0.07239857177993322</v>
       </c>
       <c r="T10">
-        <v>0.07161185576871473</v>
+        <v>0.07239857177993324</v>
       </c>
     </row>
   </sheetData>
